--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.75.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.75.xlsx
@@ -8,6 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="sr_1.0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sr_0.75" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sr_0.5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sr_0.3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="sr_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="sr_0.1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="sr_0.05" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1071,4 +1077,3928 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>85.78326802134967</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4217435883901392</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8578326802134967</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8464860469599274</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.32360141523716</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3429657868963356</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8832360141523715</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8791068948487151</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>84.83775811209441</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5087668264541814</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8483775811209441</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8295057113564418</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>83.07061479770587</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3968236563378014</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8307061479770587</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.826584803509067</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>90.89135719167122</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2339429548320671</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9089135719167121</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9073177366721545</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>71.89084680663328</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8794959110081738</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7189084680663328</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6976135256046132</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>83.3062569745413</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3917712700598107</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8330625697454129</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8237545836664661</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>89.35137847213211</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2639981680717028</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.893513784721321</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8885289309622714</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>93.80548274639054</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1642384471323264</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9380548274639053</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9369210209261073</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>88.79090649573092</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2726906671072357</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8879090649573094</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8885938984011258</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.54329189698873</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5216806806391105</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8454329189698873</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8326860854967792</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>88.52611181757628</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3137718895023379</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8852611181757627</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8806457196992987</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>88.70292995614149</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2736586656964695</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8870292995614149</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8858010331668951</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>80.83080303462833</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4782694764435291</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8083080303462833</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7974467730957902</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>82.13237138729573</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4323899165416757</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8213237138729573</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8194433732290525</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.38643067846608</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2460115245815056</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9138643067846608</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9103273249081274</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>87.41053123296913</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3243584539445389</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8741053123296915</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8622405171371735</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>91.65779980795682</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2778569145710207</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9165779980795682</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9158330121093277</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>87.40499485289665</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3036226442238937</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8740499485289664</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8709971715355881</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>71.34473481604513</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7854092309872309</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7134473481604513</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6944487545138144</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>81.6900665230668</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5428896725177765</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8169006652306681</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8031112189121007</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>85.10341784963538</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.372008902214778</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8510341784963538</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8536989245256172</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>87.37878355349095</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.327527449746655</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8737878355349095</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8667841897400368</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>86.40550523793459</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.376372752400736</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8640550523793458</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8563571905411885</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>88.93839912109966</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.277049177485363</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8893839912109966</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8845287307426883</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>75.31371378645144</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9241909892919162</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7531371378645144</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7374626074815118</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>80.41401742229604</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6732321745172765</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8041401742229605</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7937293086052264</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>97.905604719764</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.06200061408805292</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9790560471976402</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9790846334556129</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>97.34513274336283</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.06798811411464764</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9734513274336283</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9730004346568126</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>94.95575221238938</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1390088667781735</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9495575221238939</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9474176512742556</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>86.31472878946474</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.386524512885882</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8631472878946475</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8563152602577929</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.287542571375969</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2073385283259179</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0628754257137597</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.06786571361103785</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>80.96056194257736</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4984916656355683</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8096056194257736</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8024741327468279</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.2364985856279</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2698853627506954</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.892364985856279</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8922339723967305</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>83.80738587704046</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5278987604387415</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8380738587704046</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8184320210872519</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>78.4507651450272</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4358912044825654</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7845076514502721</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7707711220909149</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.57347381897767</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4372612643366058</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8357347381897767</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8298605479682898</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>80.3379787022379</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.514512235360841</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8033797870223791</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7969969274077376</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.34321231152519</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.360714637877633</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8534321231152517</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8510734051592422</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>89.651208055433</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2563659177341227</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8965120805543301</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8969266340427874</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.82456595645291</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3021811132590907</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8982456595645291</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8979774041586934</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>89.70587980864886</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2390297540153066</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8970587980864886</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.894032727801379</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.15929203539824</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4250360018884142</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8415929203539824</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8387143029022065</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>87.14037318661926</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3821983933759232</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8714037318661927</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8626453527739782</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>81.53703751762558</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4684327294429143</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8153703751762558</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7956028979712222</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>76.94582133063435</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5396227697531383</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7694582133063435</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7638112881302963</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>80.6581371811175</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5433066826313734</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8065813718111748</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8013425826297343</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>88.93805309734515</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3038316400294813</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8893805309734514</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8854701211967303</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>83.85245547106808</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4319941956433467</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8385245547106809</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8344718473044622</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>90.08866858709851</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2689986575850829</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9008866858709851</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8957008640718088</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>80.03295876261905</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5700689032518615</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8003295876261906</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7839735972423632</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>69.8698085623578</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8829698307129246</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.698698085623578</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.679179924484495</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>77.44919938753796</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6345239479715625</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7744919938753796</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7658688060755319</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>79.38831650792827</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5109155197239791</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7938831650792827</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7898838538120568</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>86.66787774980752</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3326114598506441</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8666787774980753</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8639224173493897</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>81.88946271161515</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5246561985462904</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8188946271161516</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.809278124175935</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>86.34270192648725</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3741546681868689</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8634270192648724</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8585397685049116</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>76.31943182899506</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8720092817830543</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7631943182899505</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7542030359991024</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>80.2368532599763</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7253016730110782</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8023685325997629</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7854144543045835</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>96.46017699115045</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1087805359973572</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9646017699115044</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.964607613816247</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>95.42772861356931</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1294980133237307</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9542772861356932</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9541782238489782</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>94.24778761061947</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1792421475014028</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9424778761061947</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9368903787678938</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>84.28478908410396</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.4350128388700533</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8428478908410395</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8358159450073928</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5.994142910529702</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1860385339062071</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.05994142910529701</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.06393015511372963</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>81.0122924938797</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4957417212737104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.810122924938797</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8047284656751843</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>77.19911071895085</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.563625488926967</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7719911071895085</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7693536914922594</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>77.06329639529754</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5731873815258344</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7706329639529754</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.768681552529501</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>68.20603984463534</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6743221876521905</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6820603984463534</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6735554107770116</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>70.58867291239544</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7516272137562433</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7058867291239543</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6854985574394087</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>63.11248367200407</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9257366543014844</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6311248367200408</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6145144408628319</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>79.16616925751953</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5136480921889113</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7916616925751953</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7902905611662754</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>82.02216282147769</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4563586515296872</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.820221628214777</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.817410249244215</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81.12942153478836</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4538307135459035</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8112942153478837</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8057952300364635</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.28524468204742</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3840325461390118</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8428524468204742</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8430088296294038</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>78.61651052344743</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6194655439816416</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7861651052344744</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7896975909057493</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79.36054810162719</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5791214649565518</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7936054810162718</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7913513582510273</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>75.67703872870872</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5927957172195117</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7567703872870872</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7389806658926259</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>67.9966089672056</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8354353780547777</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6799660896720561</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6648186778156747</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>64.66327563387226</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9471022004882494</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6466327563387226</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6327644906279843</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.23111791624494</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3289614381385036</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8723111791624495</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8704737154703743</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>71.97320046021159</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8536339645584425</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7197320046021158</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7025121262325634</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>83.84172873467763</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4236297553017114</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8384172873467763</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8358762062379942</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>68.71850102509538</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8172774999092022</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6871850102509537</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6744238093018453</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>64.39986505073573</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.06424444107106</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6439986505073574</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.617833547130399</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>69.6731805638457</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9663641909603029</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.696731805638457</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6818789112647838</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>72.07242277182328</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8487963795041045</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7207242277182329</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7019421500164942</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>79.92413429181913</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4831982670507083</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7992413429181913</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.796460475293554</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>69.86652133668977</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8076871208846569</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6986652133668977</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6801837507408864</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>78.2411612557202</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5403675312176347</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.782411612557202</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7736435058743784</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>68.09747489165132</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.001221868085364</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6809747489165131</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6809089298037734</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>71.2314120364363</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.829980231076479</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.712314120364363</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6996764335600131</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>87.55231446638811</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3187965827683608</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8755231446638811</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8647795792584757</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>87.76468654573137</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2869649851687427</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8776468654573136</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8782135133897484</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>92.77545653509114</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2066389930175016</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9277545653509114</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9254938153532247</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>76.11540180566729</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6381264734751151</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7611540180566732</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7524916747091375</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7.700365739251046</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2317002593610006</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.07700365739251046</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.08242454124276666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>73.47416500142735</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5996150764326255</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7347416500142735</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7276971785217714</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>70.70943520272667</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.689672426879406</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7070943520272667</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7079453793966005</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>74.5921677523162</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6510362146422267</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.745921677523162</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.724912564562487</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>63.38073858770404</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7757575993736585</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6338073858770404</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6139937018100581</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>68.2339812628137</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7767301296194395</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6823398126281369</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.671410430916688</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>59.49004749176031</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9341101805369059</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5949004749176031</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5815832646698729</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>75.71795603768199</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5695880733896047</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7571795603768199</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.753660092546719</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>71.33686277562956</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6559609197080135</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7133686277562955</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6968689393130753</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>78.24358342200192</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5529564038539927</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7824358342200192</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.776853471967999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>76.51718440470938</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6239403875234226</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7651718440470938</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.751546435261115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>71.93038002058842</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6944916151463986</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7193038002058841</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7183578813104672</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>70.7269959082691</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8140246151636044</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7072699590826911</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7049280240627604</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>63.93238695836469</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9304293087373177</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.639323869583647</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5931539163388679</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>61.87423766641579</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.047983664770921</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.618742376664158</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5946186587767114</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>60.01029420669729</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.014791773073375</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6001029420669729</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5818364615933713</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>76.2930475177121</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6934673349062602</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7629304751771209</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.750296308971629</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>66.62384622704349</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.863354716822505</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6662384622704349</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6485542021500927</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>71.9554667427919</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6969615442057451</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.719554667427919</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7054103559202288</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>60.32197510359087</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9833446475366751</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6032197510359086</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5884432311891989</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>66.02089983477364</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9209296741678068</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6602089983477366</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6440039888472457</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>70.16583188435887</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9026770133525133</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7016583188435886</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6858873879367906</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>61.66878606216316</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9954211430003246</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6166878606216317</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6022537901527552</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>68.64920976825059</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7504819485048453</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.686492097682506</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6790360888606186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>66.60792913433508</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8451567247509957</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6660792913433508</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6551656635784624</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>68.43389648699383</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8012390161554018</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6843389648699383</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6712740212587033</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>61.80987724807308</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.155162839141364</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6180987724807309</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6070415761165724</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>69.5482659884601</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8506022644539675</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6954826598846011</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6667469837778079</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>83.28662012647169</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4168755861620109</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8328662012647168</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8330112615081064</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>83.25435341136169</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3529895426986817</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8325435341136169</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8322661135442251</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>93.42961444303151</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1790774069319014</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9342961444303152</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9330805036416615</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>70.27466788928392</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7579609930547306</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7027466788928394</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6900612626167554</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7.656325056523674</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2106135394753192</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.07656325056523673</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.08207653299174582</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>61.12449069628629</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8056222960352898</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6112449069628629</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5641834209066523</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>58.76919350513413</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8817921479543049</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5876919350513413</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5837448325772668</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>68.41425963892422</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7365185573697091</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6841425963892421</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6803606608189866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>52.68626891236083</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9797237915297348</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5268626891236083</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4955499787397843</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61.56203773389043</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8725775261720022</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6156203773389043</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6000005937273022</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>40.05752644919074</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.192216390371323</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4005752644919074</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3782543259686711</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>65.16604814920544</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9230249951127917</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6516604814920545</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6179334600276947</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>65.01241360219379</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7218867429842553</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6501241360219379</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.620075256335741</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>65.96449796278515</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8452812943607568</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6596449796278515</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6464203367652887</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>63.08679140823018</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8377286111315092</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6308679140823018</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6092258380563615</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>61.45105061462469</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8847493693232537</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.614510506146247</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6037139696617306</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>56.12496647894879</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.023844916621844</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5612496647894878</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5379678823386239</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>60.27387780171109</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8919894576072693</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.602738778017111</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5754291175438337</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>48.95050995250824</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.12334973414739</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4895050995250824</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4659627551939117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>55.52262562824937</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.062992556889852</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5552262562824938</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5418012335541891</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>65.58845664754885</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7995991997420788</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6558845664754885</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.649541607550491</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>63.35141307450757</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8828266521294911</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6335141307450757</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6174824030296188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>69.12914471578475</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7452307716012001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6912914471578474</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6815163087806009</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>56.7861313679184</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.094557279845079</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.567861313679184</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5453381659075126</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>56.94850301473197</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.012918567533294</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5694850301473197</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5271047104418344</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>59.16020034775387</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.022570229073365</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5916020034775388</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5800282284742412</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>45.49087794877119</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.214586968968312</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4549087794877118</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4254843145981216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>47.58233202709366</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.149982969959577</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4758233202709367</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4416876819939871</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>46.82436699279405</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.285666753351688</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4682436699279405</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4301773902855152</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>61.92432460488412</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.014006497679899</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6192432460488412</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5936624474805449</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>47.52212389380531</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.232800636192163</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.4752212389380531</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.465610938738657</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>59.22040848104223</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8838795945048332</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5922040848104222</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5806605418371912</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>76.02193790603725</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6318168632686139</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7602193790603725</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7541231400949615</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>73.78437529736416</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.579292707318867</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7378437529736417</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7300846959669398</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>85.71968615645464</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.4785792537033558</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8571968615645463</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8542974767359089</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>59.97402803369118</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9270537777494369</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5997402803369118</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5799141238044055</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9.550086335727686</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1935848953793688</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.09550086335727684</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1018245516593301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>51.50494381439286</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.354175128601491</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5150494381439286</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4715433560753535</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50.21738942378394</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.030471768975258</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5021738942378394</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4655423722888203</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>54.39822143790171</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.03995282103618</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5439822143790172</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5238424538122997</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>51.41887040545333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9764462540547052</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5141887040545334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4676428549643097</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50.07006981029248</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.020770543813705</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5007006981029247</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4769304159867945</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>39.40976998070918</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.332076223691304</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3940976998070918</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3443012424417824</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>64.22304691217053</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9526216604902098</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6422304691217052</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6285998816061682</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>61.30148184672878</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7909955769777298</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6130148184672878</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6042709973274992</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>65.49338662099153</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.739092115064462</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6549338662099153</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6448636457673087</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>43.72979005008694</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.216906905174255</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4372979005008694</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4051964248745181</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>42.62294656528171</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.143152242898941</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4262294656528171</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3861242453818874</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>48.55491829514096</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.122758526603381</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4855491829514096</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4602346481063772</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>48.90284518032163</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.434119495749474</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4890284518032163</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4131137195568773</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>42.86326006280331</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.244084149599075</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4286326006280331</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3865455019105894</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>54.92262043789306</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9976038455963134</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5492262043789307</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5194204639312177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>52.79457434752896</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.034085602561633</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5279457434752896</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5147051082417006</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>44.60505713717247</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.314889994263649</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4460505713717247</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3865889990644572</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>59.01115061548975</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9852756177385649</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5901115061548975</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5707974873986233</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>40.43867161480635</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.24890258833766</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4043867161480635</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3792326895655105</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>40.9855621588422</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.449396263435483</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.409855621588422</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3459050464674471</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>57.81832022768364</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.084856212635835</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5781832022768363</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5670820442913234</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>38.82992067405427</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.337676136692365</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3882992067405427</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3459381758028191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>40.42162994489572</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.299174691239993</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4042162994489572</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3409416401174378</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>35.82574243721832</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.507702457904816</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3582574243721831</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2929557621851161</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>61.32397339077328</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9055816983183226</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6132397339077327</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5933102448585492</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>46.64149343852456</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.36475284943978</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.4664149343852455</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4368627835283648</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>47.79799133210495</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.129491819938024</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.4779799133210495</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4329395049294972</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>60.84559555013451</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9090264216065407</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.6084559555013451</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5843171733623593</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>65.50169119110026</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7338278107345104</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6550169119110028</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6450059406690102</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>78.33527971695257</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.6272741299122572</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.7833527971695257</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7779371738425851</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>51.36034048737444</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.110904718436198</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5136034048737446</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.4804230666118868</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9.826993116555995</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2254326666225742</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.09826993116555997</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1132869390309665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>